--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_22_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1106687.6673982</v>
+        <v>-1109547.499633469</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368145</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>72.46246901705744</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>92.71006815903729</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X2" t="n">
-        <v>153.8072380324127</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>126.5366942841277</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -753,10 +753,10 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.7788117555066</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714242</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>5.89114089104376</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.2624308341688</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>128.7620850689242</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553089</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>292.5197808989887</v>
       </c>
       <c r="F5" t="n">
-        <v>369.991994513451</v>
+        <v>382.6612299361379</v>
       </c>
       <c r="G5" t="n">
-        <v>12.42254329489921</v>
+        <v>382.6612299361379</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.43720189476431</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>382.6612299361431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -987,10 +987,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.8024773971665</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.35224439075475</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.478189731062272</v>
+        <v>4.478189731062855</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0590333442029</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>29.00662917442041</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8399978858403</v>
       </c>
       <c r="V6" t="n">
-        <v>28.00180621181368</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1066,16 +1066,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6990233854882</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>121.9980040314933</v>
       </c>
       <c r="I7" t="n">
-        <v>110.1229315178325</v>
+        <v>116.5978353037443</v>
       </c>
       <c r="J7" t="n">
-        <v>2.017892827655317</v>
+        <v>2.017892827655871</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4254139074074</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>1.059584261373734</v>
       </c>
       <c r="T8" t="n">
-        <v>38.10459260550206</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1224,10 +1224,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>88.14919951609785</v>
+        <v>98.16604449024165</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>167.1915524977281</v>
       </c>
       <c r="T10" t="n">
-        <v>150.5519342676658</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1576,19 +1576,19 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>72.60410776434607</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>101.9154861872836</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>71.05846343488058</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206823</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>20.92847288552852</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>121.8070385036035</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>4.019807611472022</v>
+        <v>56.45752097953178</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>126.926382450742</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>80.33989744908955</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,13 +2561,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,16 +2950,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="42">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3992,7 +3992,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330557</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.033711606785</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>80.81213159058956</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079186</v>
+        <v>191.8743094079187</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.1218190644757</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.4952041123832</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985576</v>
+        <v>649.4845259985589</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020256</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201457</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201457</v>
+        <v>676.9079355167373</v>
       </c>
       <c r="T2" t="n">
-        <v>549.2024635036612</v>
+        <v>676.9079355167373</v>
       </c>
       <c r="U2" t="n">
-        <v>359.7826784871767</v>
+        <v>487.4881505002525</v>
       </c>
       <c r="V2" t="n">
-        <v>359.7826784871767</v>
+        <v>393.8416170062754</v>
       </c>
       <c r="W2" t="n">
-        <v>170.3628934706922</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330557</v>
+        <v>204.4218319897905</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330557</v>
+        <v>204.4218319897905</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>376.2657844577477</v>
+        <v>382.2164318224397</v>
       </c>
       <c r="C3" t="n">
-        <v>201.8127551766207</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="D3" t="n">
-        <v>201.8127551766207</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="E3" t="n">
-        <v>201.8127551766207</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="F3" t="n">
-        <v>201.8127551766207</v>
+        <v>254.4015891111996</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140239</v>
+        <v>338.7690911140248</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476339</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017052</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843266</v>
+        <v>722.9192922843283</v>
       </c>
       <c r="S3" t="n">
-        <v>571.6362168389229</v>
+        <v>571.6362168389246</v>
       </c>
       <c r="T3" t="n">
-        <v>565.6855694742322</v>
+        <v>382.2164318224397</v>
       </c>
       <c r="U3" t="n">
-        <v>376.2657844577477</v>
+        <v>382.2164318224397</v>
       </c>
       <c r="V3" t="n">
-        <v>376.2657844577477</v>
+        <v>382.2164318224397</v>
       </c>
       <c r="W3" t="n">
-        <v>376.2657844577477</v>
+        <v>382.2164318224397</v>
       </c>
       <c r="X3" t="n">
-        <v>376.2657844577477</v>
+        <v>382.2164318224397</v>
       </c>
       <c r="Y3" t="n">
-        <v>376.2657844577477</v>
+        <v>382.2164318224397</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.3613333452703</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="C4" t="n">
-        <v>207.3613333452703</v>
+        <v>443.6253053489529</v>
       </c>
       <c r="D4" t="n">
-        <v>207.3613333452703</v>
+        <v>313.5625931581204</v>
       </c>
       <c r="E4" t="n">
-        <v>207.3613333452703</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="F4" t="n">
-        <v>207.3613333452703</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818525</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818525</v>
+        <v>165.6494995757273</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818525</v>
+        <v>38.67250990818521</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330557</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884405</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>373.539956383097</v>
+        <v>285.9838492295954</v>
       </c>
       <c r="N4" t="n">
-        <v>559.1902876777534</v>
+        <v>471.6341805242522</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143035</v>
+        <v>634.3723839608024</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652786</v>
+        <v>750.1023486652801</v>
       </c>
       <c r="Q4" t="n">
-        <v>750.1023486652786</v>
+        <v>746.7254979846279</v>
       </c>
       <c r="R4" t="n">
-        <v>750.1023486652786</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="S4" t="n">
-        <v>560.682563648794</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="T4" t="n">
-        <v>560.682563648794</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="U4" t="n">
-        <v>560.682563648794</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="V4" t="n">
-        <v>560.682563648794</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="W4" t="n">
-        <v>560.682563648794</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="X4" t="n">
-        <v>560.682563648794</v>
+        <v>612.5614882768598</v>
       </c>
       <c r="Y4" t="n">
-        <v>371.2627786323095</v>
+        <v>612.5614882768598</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1144.118424859579</v>
+        <v>1199.582032400981</v>
       </c>
       <c r="C5" t="n">
-        <v>775.1559079191675</v>
+        <v>1199.582032400981</v>
       </c>
       <c r="D5" t="n">
-        <v>416.890209312417</v>
+        <v>1199.582032400981</v>
       </c>
       <c r="E5" t="n">
-        <v>416.890209312417</v>
+        <v>904.1075062403863</v>
       </c>
       <c r="F5" t="n">
-        <v>43.16092192509267</v>
+        <v>517.5810113553985</v>
       </c>
       <c r="G5" t="n">
-        <v>30.61289839489145</v>
+        <v>131.0545164704106</v>
       </c>
       <c r="H5" t="n">
-        <v>30.61289839489145</v>
+        <v>131.0545164704106</v>
       </c>
       <c r="I5" t="n">
-        <v>30.61289839489145</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="J5" t="n">
-        <v>93.38580827121632</v>
+        <v>93.3858082712145</v>
       </c>
       <c r="K5" t="n">
-        <v>238.2046462235871</v>
+        <v>238.204646223583</v>
       </c>
       <c r="L5" t="n">
-        <v>454.7669823190686</v>
+        <v>454.7669823190618</v>
       </c>
       <c r="M5" t="n">
-        <v>727.4037457643152</v>
+        <v>727.4037457643053</v>
       </c>
       <c r="N5" t="n">
-        <v>1009.065865453899</v>
+        <v>1009.065865453887</v>
       </c>
       <c r="O5" t="n">
-        <v>1261.696156831944</v>
+        <v>1261.696156831928</v>
       </c>
       <c r="P5" t="n">
-        <v>1442.809264855789</v>
+        <v>1442.80926485577</v>
       </c>
       <c r="Q5" t="n">
-        <v>1530.644919744572</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="R5" t="n">
-        <v>1530.644919744572</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="S5" t="n">
-        <v>1530.644919744572</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="T5" t="n">
-        <v>1530.644919744572</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="U5" t="n">
-        <v>1530.644919744572</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="V5" t="n">
-        <v>1530.644919744572</v>
+        <v>1199.582032400981</v>
       </c>
       <c r="W5" t="n">
-        <v>1530.644919744572</v>
+        <v>1199.582032400981</v>
       </c>
       <c r="X5" t="n">
-        <v>1530.644919744572</v>
+        <v>1199.582032400981</v>
       </c>
       <c r="Y5" t="n">
-        <v>1144.118424859579</v>
+        <v>1199.582032400981</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659.7723503158403</v>
+        <v>720.8291410225122</v>
       </c>
       <c r="C6" t="n">
-        <v>485.3193210347133</v>
+        <v>720.8291410225122</v>
       </c>
       <c r="D6" t="n">
-        <v>336.384911373462</v>
+        <v>571.8947313612609</v>
       </c>
       <c r="E6" t="n">
-        <v>177.1474563680065</v>
+        <v>412.6572763558054</v>
       </c>
       <c r="F6" t="n">
-        <v>30.61289839489145</v>
+        <v>266.1227183826903</v>
       </c>
       <c r="G6" t="n">
-        <v>30.61289839489145</v>
+        <v>128.9484987895928</v>
       </c>
       <c r="H6" t="n">
-        <v>30.61289839489145</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="I6" t="n">
-        <v>30.61289839489145</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="J6" t="n">
-        <v>174.0122915097586</v>
+        <v>49.18216652275255</v>
       </c>
       <c r="K6" t="n">
-        <v>387.275982211782</v>
+        <v>159.0748281477039</v>
       </c>
       <c r="L6" t="n">
-        <v>581.3627685184503</v>
+        <v>353.1616144543701</v>
       </c>
       <c r="M6" t="n">
-        <v>827.2097618283037</v>
+        <v>715.1376207894643</v>
       </c>
       <c r="N6" t="n">
-        <v>1093.972238426256</v>
+        <v>1093.972238426241</v>
       </c>
       <c r="O6" t="n">
-        <v>1315.787993034629</v>
+        <v>1315.787993034611</v>
       </c>
       <c r="P6" t="n">
-        <v>1474.481625486934</v>
+        <v>1474.481625486915</v>
       </c>
       <c r="Q6" t="n">
-        <v>1530.644919744572</v>
+        <v>1530.644919744552</v>
       </c>
       <c r="R6" t="n">
-        <v>1526.121495773802</v>
+        <v>1526.121495773781</v>
       </c>
       <c r="S6" t="n">
-        <v>1526.121495773802</v>
+        <v>1381.617421688728</v>
       </c>
       <c r="T6" t="n">
-        <v>1526.121495773802</v>
+        <v>1352.31779626002</v>
       </c>
       <c r="U6" t="n">
-        <v>1526.121495773802</v>
+        <v>1124.196586274323</v>
       </c>
       <c r="V6" t="n">
-        <v>1497.836843034597</v>
+        <v>889.0444780425803</v>
       </c>
       <c r="W6" t="n">
-        <v>1243.599486306395</v>
+        <v>889.0444780425803</v>
       </c>
       <c r="X6" t="n">
-        <v>1035.747986100862</v>
+        <v>889.0444780425803</v>
       </c>
       <c r="Y6" t="n">
-        <v>827.9876873359083</v>
+        <v>889.0444780425803</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>757.1889907370014</v>
+        <v>718.5767527894429</v>
       </c>
       <c r="C7" t="n">
-        <v>757.1889907370014</v>
+        <v>718.5767527894429</v>
       </c>
       <c r="D7" t="n">
-        <v>607.0723513246656</v>
+        <v>568.4601133771072</v>
       </c>
       <c r="E7" t="n">
-        <v>459.1592577422725</v>
+        <v>420.5470197947141</v>
       </c>
       <c r="F7" t="n">
-        <v>312.2693102443621</v>
+        <v>273.6570722968037</v>
       </c>
       <c r="G7" t="n">
-        <v>143.8864583398286</v>
+        <v>273.6570722968037</v>
       </c>
       <c r="H7" t="n">
-        <v>143.8864583398286</v>
+        <v>150.4267651942852</v>
       </c>
       <c r="I7" t="n">
-        <v>32.65117397838166</v>
+        <v>32.65117397838181</v>
       </c>
       <c r="J7" t="n">
-        <v>30.61289839489145</v>
+        <v>30.61289839489104</v>
       </c>
       <c r="K7" t="n">
-        <v>157.1668774983393</v>
+        <v>157.166877498338</v>
       </c>
       <c r="L7" t="n">
-        <v>374.6388343436948</v>
+        <v>374.6388343436924</v>
       </c>
       <c r="M7" t="n">
-        <v>614.3216441132968</v>
+        <v>614.3216441132931</v>
       </c>
       <c r="N7" t="n">
-        <v>853.7399488058517</v>
+        <v>853.7399488058469</v>
       </c>
       <c r="O7" t="n">
-        <v>1058.865208650465</v>
+        <v>1058.865208650459</v>
       </c>
       <c r="P7" t="n">
-        <v>1210.864622702311</v>
+        <v>1210.864622702304</v>
       </c>
       <c r="Q7" t="n">
-        <v>1232.666058086418</v>
+        <v>1232.666058086411</v>
       </c>
       <c r="R7" t="n">
-        <v>1232.666058086418</v>
+        <v>1232.666058086411</v>
       </c>
       <c r="S7" t="n">
-        <v>1232.666058086418</v>
+        <v>1232.666058086411</v>
       </c>
       <c r="T7" t="n">
-        <v>1232.666058086418</v>
+        <v>1007.993922826404</v>
       </c>
       <c r="U7" t="n">
-        <v>1232.666058086418</v>
+        <v>1007.993922826404</v>
       </c>
       <c r="V7" t="n">
-        <v>977.9815698805315</v>
+        <v>1007.993922826404</v>
       </c>
       <c r="W7" t="n">
-        <v>977.9815698805315</v>
+        <v>718.5767527894429</v>
       </c>
       <c r="X7" t="n">
-        <v>977.9815698805315</v>
+        <v>718.5767527894429</v>
       </c>
       <c r="Y7" t="n">
-        <v>757.1889907370014</v>
+        <v>718.5767527894429</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1221.096512122545</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="C8" t="n">
-        <v>852.1339951821335</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="D8" t="n">
-        <v>852.1339951821335</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="E8" t="n">
-        <v>466.3457425838893</v>
+        <v>466.3457425838894</v>
       </c>
       <c r="F8" t="n">
-        <v>55.35983779428172</v>
+        <v>55.35983779428181</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232727</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711881</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2036.325171642784</v>
+        <v>2167.389539771957</v>
       </c>
       <c r="T8" t="n">
-        <v>1997.835684162479</v>
+        <v>2167.389539771957</v>
       </c>
       <c r="U8" t="n">
-        <v>1997.835684162479</v>
+        <v>1913.782375434466</v>
       </c>
       <c r="V8" t="n">
-        <v>1997.835684162479</v>
+        <v>1582.719488090895</v>
       </c>
       <c r="W8" t="n">
-        <v>1997.835684162479</v>
+        <v>1229.950832820781</v>
       </c>
       <c r="X8" t="n">
-        <v>1997.835684162479</v>
+        <v>856.4850745597012</v>
       </c>
       <c r="Y8" t="n">
-        <v>1607.696352186667</v>
+        <v>466.3457425838894</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>761.5682439298478</v>
+        <v>867.1416360874225</v>
       </c>
       <c r="C9" t="n">
-        <v>587.1152146487208</v>
+        <v>692.6886068062955</v>
       </c>
       <c r="D9" t="n">
-        <v>438.1808049874695</v>
+        <v>543.7541971450443</v>
       </c>
       <c r="E9" t="n">
-        <v>278.943349982014</v>
+        <v>384.5167421395888</v>
       </c>
       <c r="F9" t="n">
-        <v>132.408792008899</v>
+        <v>237.9821841664737</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562342</v>
       </c>
       <c r="K9" t="n">
-        <v>508.4654164929048</v>
+        <v>508.4654164929053</v>
       </c>
       <c r="L9" t="n">
-        <v>766.0165520528924</v>
+        <v>766.0165520528933</v>
       </c>
       <c r="M9" t="n">
-        <v>1085.923447521402</v>
+        <v>1085.923447521403</v>
       </c>
       <c r="N9" t="n">
-        <v>1428.705971516033</v>
+        <v>1428.705971516035</v>
       </c>
       <c r="O9" t="n">
-        <v>1720.065217770599</v>
+        <v>1720.065217770601</v>
       </c>
       <c r="P9" t="n">
-        <v>2074.985828260213</v>
+        <v>1934.573633331502</v>
       </c>
       <c r="Q9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406371</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T9" t="n">
-        <v>1834.784844880347</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U9" t="n">
-        <v>1834.784844880347</v>
+        <v>1940.358237037922</v>
       </c>
       <c r="V9" t="n">
-        <v>1599.632736648604</v>
+        <v>1705.206128806179</v>
       </c>
       <c r="W9" t="n">
-        <v>1345.395379920403</v>
+        <v>1450.968772077977</v>
       </c>
       <c r="X9" t="n">
-        <v>1137.54387971487</v>
+        <v>1243.117271872444</v>
       </c>
       <c r="Y9" t="n">
-        <v>929.7835809499159</v>
+        <v>1035.356973107491</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>341.3989295328219</v>
+        <v>807.2652734548466</v>
       </c>
       <c r="C10" t="n">
-        <v>341.3989295328219</v>
+        <v>638.3290905269397</v>
       </c>
       <c r="D10" t="n">
-        <v>191.2822901204862</v>
+        <v>488.2124511146039</v>
       </c>
       <c r="E10" t="n">
-        <v>43.36919653809306</v>
+        <v>340.2993575322108</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>58.6963092017423</v>
+        <v>58.69630920174252</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246705</v>
+        <v>213.7203003246709</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728883</v>
+        <v>467.624070672889</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640786</v>
+        <v>745.7191196640795</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1022.63630638511</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152952</v>
+        <v>1262.397853152954</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271086</v>
+        <v>1444.034594271088</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693647</v>
+        <v>1486.355378693649</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693647</v>
+        <v>1317.475022635337</v>
       </c>
       <c r="T10" t="n">
-        <v>1334.282717817217</v>
+        <v>1317.475022635337</v>
       </c>
       <c r="U10" t="n">
-        <v>1334.282717817217</v>
+        <v>1317.475022635337</v>
       </c>
       <c r="V10" t="n">
-        <v>1079.59822961133</v>
+        <v>1317.475022635337</v>
       </c>
       <c r="W10" t="n">
-        <v>790.1810595743693</v>
+        <v>1028.057852598377</v>
       </c>
       <c r="X10" t="n">
-        <v>562.191508676352</v>
+        <v>1028.057852598377</v>
       </c>
       <c r="Y10" t="n">
-        <v>341.3989295328219</v>
+        <v>807.2652734548466</v>
       </c>
     </row>
     <row r="11">
@@ -5033,25 +5033,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,7 +5066,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191924</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>923.067041434951</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>847.644273983533</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711973</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1720.348534373476</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.22892174168</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5349,28 +5349,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637304</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1814.118720444888</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2366.028450684175</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C16" t="n">
-        <v>734.6461798836013</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D16" t="n">
         <v>631.7012443408906</v>
@@ -5431,55 +5431,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782949</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038335</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2125.286319795768</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="17">
@@ -5507,49 +5507,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>114.9565346495158</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>114.9565346495158</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,31 +5692,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993913</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956953</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>983.30903818352</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5756,19 +5756,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5990,16 +5990,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>363.7369613277355</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,22 +6297,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
         <v>1307.627092998424</v>
@@ -6376,10 +6376,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6458,16 +6458,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014779</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,19 +6835,19 @@
         <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345477</v>
@@ -7090,16 +7090,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954148</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150018</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942649</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580108</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7345,37 +7345,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7570,7 +7570,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7585,34 +7585,34 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973195</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7819,25 +7819,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402848</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457082</v>
+        <v>82.97369176944363</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711115</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777582</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.66253762724247</v>
+        <v>34.66253762724358</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>104.4151808859299</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>117.3020333588314</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>113.2041828675012</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>141.8304999279935</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>141.8304999279951</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>31.66886087721419</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>208.2971029564476</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>86.31334417299566</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988714</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871069</v>
+        <v>63.64367339871029</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510934</v>
+        <v>161.715381551093</v>
       </c>
       <c r="X2" t="n">
-        <v>215.9238626460563</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>213.9188905722449</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>46.69998683092876</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.3469868924077</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>119.3662399606954</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>103.9026168854337</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>144.5956654067403</v>
+        <v>92.15795203868058</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>205.8445769401546</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24838,16 +24838,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>-2.435829443713351e-13</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1224138.66676528</v>
+        <v>1224138.666765281</v>
       </c>
     </row>
     <row r="12">
@@ -26320,16 +26320,16 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="F2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="G2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="I2" t="n">
         <v>201786.6499225015</v>
@@ -26338,13 +26338,13 @@
         <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
-        <v>201786.6499225015</v>
+        <v>201786.6499225016</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660709</v>
@@ -26353,7 +26353,7 @@
         <v>205260.4424660709</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.442466071</v>
+        <v>205260.4424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208449</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>216004.0468996556</v>
+        <v>216004.0468996494</v>
       </c>
       <c r="D3" t="n">
-        <v>167084.5112960572</v>
+        <v>167084.5112960636</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742641</v>
       </c>
       <c r="F3" t="n">
-        <v>2.370099883548738e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854447</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>50221.67010838397</v>
+        <v>50221.6701083825</v>
       </c>
       <c r="L3" t="n">
-        <v>59784.02116064474</v>
+        <v>59784.02116064634</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515977</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195959.764726069</v>
+        <v>195959.7647260689</v>
       </c>
       <c r="C4" t="n">
-        <v>220711.7529307682</v>
+        <v>220711.7529307697</v>
       </c>
       <c r="D4" t="n">
-        <v>173824.4120003228</v>
+        <v>173824.4120003225</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="F4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="G4" t="n">
-        <v>14216.75207685508</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="H4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="I4" t="n">
         <v>14216.75207685507</v>
       </c>
       <c r="J4" t="n">
-        <v>14216.75207685509</v>
+        <v>14216.75207685507</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685505</v>
+        <v>14216.75207685506</v>
       </c>
       <c r="L4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994854</v>
       </c>
       <c r="M4" t="n">
+        <v>22207.61133994856</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994852</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22207.61133994854</v>
       </c>
       <c r="O4" t="n">
         <v>22207.61133994853</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994859</v>
+        <v>22207.61133994858</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161354</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>72511.9759879014</v>
+        <v>72511.97598790099</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675050.3267642057</v>
+        <v>-675410.4097799237</v>
       </c>
       <c r="C6" t="n">
-        <v>-303967.3333522544</v>
+        <v>-303967.3333522493</v>
       </c>
       <c r="D6" t="n">
-        <v>-220847.5626861815</v>
+        <v>-220847.5626861876</v>
       </c>
       <c r="E6" t="n">
-        <v>-514995.8395525254</v>
+        <v>-515030.5774779604</v>
       </c>
       <c r="F6" t="n">
-        <v>86447.36802173933</v>
+        <v>86412.63009630371</v>
       </c>
       <c r="G6" t="n">
-        <v>86447.36802173933</v>
+        <v>86412.63009630371</v>
       </c>
       <c r="H6" t="n">
-        <v>86447.36802173914</v>
+        <v>86412.63009630371</v>
       </c>
       <c r="I6" t="n">
-        <v>86447.36802173931</v>
+        <v>86412.63009630365</v>
       </c>
       <c r="J6" t="n">
-        <v>37382.42329319485</v>
+        <v>37347.685367759</v>
       </c>
       <c r="K6" t="n">
-        <v>36225.69791335541</v>
+        <v>36190.95998792117</v>
       </c>
       <c r="L6" t="n">
-        <v>20104.69411156246</v>
+        <v>20104.69411156094</v>
       </c>
       <c r="M6" t="n">
-        <v>-77257.66527939096</v>
+        <v>-77257.66527939061</v>
       </c>
       <c r="N6" t="n">
-        <v>79888.71527220693</v>
+        <v>79888.71527220702</v>
       </c>
       <c r="O6" t="n">
-        <v>79888.71527220702</v>
+        <v>79888.71527220699</v>
       </c>
       <c r="P6" t="n">
-        <v>79888.715272207</v>
+        <v>79888.71527220697</v>
       </c>
     </row>
   </sheetData>
@@ -26695,31 +26695,31 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>716.4483122836654</v>
+        <v>716.448312283661</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.710664537685</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>382.6612299361431</v>
+        <v>382.6612299361379</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>167.9783713707611</v>
+        <v>167.9783713707562</v>
       </c>
       <c r="D3" t="n">
-        <v>137.2623522540188</v>
+        <v>137.262352254024</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039887</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>195.1356427698234</v>
+        <v>195.1356427698179</v>
       </c>
       <c r="D4" t="n">
-        <v>159.4537267900201</v>
+        <v>159.4537267900264</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.593331373484</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698236</v>
+        <v>195.1356427698179</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900201</v>
+        <v>159.4537267900264</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734838</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.962624854435923e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>195.1356427698234</v>
+        <v>195.1356427698179</v>
       </c>
       <c r="L4" t="n">
-        <v>159.4537267900201</v>
+        <v>159.4537267900264</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.593331373484</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>108.5967231497747</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,10 +27424,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>235.0421903110976</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27445,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27458,7 +27458,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>46.17180470418801</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27473,10 +27473,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27509,10 +27509,10 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>189.5184569009575</v>
+        <v>7.884010625681197</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377128</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17.56954934776849</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>19.85338794928819</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845843</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>19.2546686291766</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
         <v>223.7196734901001</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>89.41058917327308</v>
       </c>
       <c r="F5" t="n">
-        <v>36.88405122826043</v>
+        <v>24.21481580557349</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>29.76131335876129</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9780130577769</v>
+        <v>309.978013057777</v>
       </c>
       <c r="I5" t="n">
-        <v>99.43720189476365</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3876437926211</v>
+        <v>143.3876437926215</v>
       </c>
       <c r="T5" t="n">
-        <v>210.487799365049</v>
+        <v>210.4877993650491</v>
       </c>
       <c r="U5" t="n">
         <v>251.1152373702176</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.576708719910528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -27707,13 +27707,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.8024773971665</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>97.35224439075466</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.33890406437004</v>
+        <v>36.33890406437036</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0590333442027</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9532570062491</v>
+        <v>164.9466278318287</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8399978858403</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>204.7987809376116</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27786,13 +27786,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6990233854882</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7405094023015</v>
+        <v>28.74250537080825</v>
       </c>
       <c r="I7" t="n">
-        <v>6.474903785911621</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.202352810694</v>
+        <v>119.2023528106943</v>
       </c>
       <c r="S7" t="n">
-        <v>201.5013289443856</v>
+        <v>201.5013289443857</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4254139074073</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2485590306925</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>78.16360657708285</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.7537244478766</v>
       </c>
       <c r="T8" t="n">
-        <v>169.9676652641018</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27944,13 +27944,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>47.3580343309374</v>
+        <v>37.34118935679358</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046393</v>
+        <v>26.17372043046387</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>109.1541654470835</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>29.99613826188772</v>
       </c>
       <c r="T10" t="n">
-        <v>70.81588446663687</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28375,13 +28375,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>6.33763517855966e-13</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29281,13 +29281,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="35">
@@ -30034,13 +30034,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -30712,7 +30712,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.880194220235838</v>
+        <v>2.880194220235821</v>
       </c>
       <c r="H5" t="n">
-        <v>29.49678905799029</v>
+        <v>29.49678905799011</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0386876756423</v>
+        <v>111.0386876756416</v>
       </c>
       <c r="J5" t="n">
-        <v>244.4528841997417</v>
+        <v>244.4528841997403</v>
       </c>
       <c r="K5" t="n">
-        <v>366.3715055423248</v>
+        <v>366.3715055423226</v>
       </c>
       <c r="L5" t="n">
-        <v>454.5162494098674</v>
+        <v>454.5162494098647</v>
       </c>
       <c r="M5" t="n">
-        <v>505.7369033739865</v>
+        <v>505.7369033739835</v>
       </c>
       <c r="N5" t="n">
-        <v>513.9202552022317</v>
+        <v>513.9202552022285</v>
       </c>
       <c r="O5" t="n">
-        <v>485.2803239247615</v>
+        <v>485.2803239247586</v>
       </c>
       <c r="P5" t="n">
-        <v>414.1755291126892</v>
+        <v>414.1755291126867</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.0285736004931</v>
+        <v>311.0285736004913</v>
       </c>
       <c r="R5" t="n">
-        <v>180.9230001868897</v>
+        <v>180.9230001868885</v>
       </c>
       <c r="S5" t="n">
-        <v>65.63242579362424</v>
+        <v>65.63242579362384</v>
       </c>
       <c r="T5" t="n">
-        <v>12.60805019908239</v>
+        <v>12.60805019908231</v>
       </c>
       <c r="U5" t="n">
-        <v>0.230415537618867</v>
+        <v>0.2304155376188656</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.54103976604411</v>
+        <v>1.541039766044101</v>
       </c>
       <c r="H6" t="n">
-        <v>14.88319984574181</v>
+        <v>14.88319984574172</v>
       </c>
       <c r="I6" t="n">
-        <v>53.05772878704504</v>
+        <v>53.05772878704472</v>
       </c>
       <c r="J6" t="n">
-        <v>145.594463159457</v>
+        <v>145.5944631594561</v>
       </c>
       <c r="K6" t="n">
-        <v>248.8441274844124</v>
+        <v>248.8441274844108</v>
       </c>
       <c r="L6" t="n">
-        <v>334.6016386754986</v>
+        <v>334.6016386754966</v>
       </c>
       <c r="M6" t="n">
-        <v>390.4643301945976</v>
+        <v>390.4643301945952</v>
       </c>
       <c r="N6" t="n">
-        <v>400.7987591519724</v>
+        <v>400.79875915197</v>
       </c>
       <c r="O6" t="n">
-        <v>366.6525622306792</v>
+        <v>366.652562230677</v>
       </c>
       <c r="P6" t="n">
-        <v>294.2710058510021</v>
+        <v>294.2710058510004</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.7123743462623</v>
+        <v>196.7123743462611</v>
       </c>
       <c r="R6" t="n">
-        <v>95.67964442158086</v>
+        <v>95.67964442158028</v>
       </c>
       <c r="S6" t="n">
-        <v>28.6241377596351</v>
+        <v>28.62413775963493</v>
       </c>
       <c r="T6" t="n">
-        <v>6.211471688572531</v>
+        <v>6.211471688572493</v>
       </c>
       <c r="U6" t="n">
-        <v>0.101384195134481</v>
+        <v>0.1013841951344804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.291955972970544</v>
+        <v>1.291955972970536</v>
       </c>
       <c r="H7" t="n">
-        <v>11.48666310513812</v>
+        <v>11.48666310513805</v>
       </c>
       <c r="I7" t="n">
-        <v>38.85263962351419</v>
+        <v>38.85263962351395</v>
       </c>
       <c r="J7" t="n">
-        <v>91.34128728901746</v>
+        <v>91.3412872890169</v>
       </c>
       <c r="K7" t="n">
-        <v>150.1017939505777</v>
+        <v>150.1017939505768</v>
       </c>
       <c r="L7" t="n">
-        <v>192.0786180178207</v>
+        <v>192.0786180178196</v>
       </c>
       <c r="M7" t="n">
-        <v>202.5199712902826</v>
+        <v>202.5199712902814</v>
       </c>
       <c r="N7" t="n">
-        <v>197.7044990273926</v>
+        <v>197.7044990273914</v>
       </c>
       <c r="O7" t="n">
-        <v>182.6121042522366</v>
+        <v>182.6121042522355</v>
       </c>
       <c r="P7" t="n">
-        <v>156.2562024036374</v>
+        <v>156.2562024036364</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.1836951548335</v>
+        <v>108.1836951548328</v>
       </c>
       <c r="R7" t="n">
-        <v>58.09103856647553</v>
+        <v>58.09103856647518</v>
       </c>
       <c r="S7" t="n">
-        <v>22.51526909258665</v>
+        <v>22.51526909258652</v>
       </c>
       <c r="T7" t="n">
-        <v>5.520175520874141</v>
+        <v>5.520175520874107</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07047032579839339</v>
+        <v>0.07047032579839296</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258716</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840432</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934785</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839015</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.6176784928399</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095121</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616802</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730382</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152848</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053862</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.2963094801748</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420141</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978882</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419862</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,34 +31841,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>510.8679233250726</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>322.8964653704916</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362267</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,34 +32546,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,13 +32783,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,22 +33020,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,16 +33731,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,10 +34205,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880151</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663196</v>
+        <v>99.08507489005521</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732829</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068189</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.40697967305542</v>
+        <v>63.40697967305397</v>
       </c>
       <c r="K5" t="n">
-        <v>146.2816544973443</v>
+        <v>146.2816544973421</v>
       </c>
       <c r="L5" t="n">
-        <v>218.7498344398802</v>
+        <v>218.7498344398775</v>
       </c>
       <c r="M5" t="n">
-        <v>275.3906701467138</v>
+        <v>275.3906701467107</v>
       </c>
       <c r="N5" t="n">
-        <v>284.5071916056408</v>
+        <v>284.5071916056376</v>
       </c>
       <c r="O5" t="n">
-        <v>255.1821125030748</v>
+        <v>255.1821125030719</v>
       </c>
       <c r="P5" t="n">
-        <v>182.9425333574196</v>
+        <v>182.9425333574171</v>
       </c>
       <c r="Q5" t="n">
-        <v>88.72288372604365</v>
+        <v>88.72288372604177</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>144.8478718331991</v>
+        <v>18.7568364927894</v>
       </c>
       <c r="K6" t="n">
-        <v>215.4178693959833</v>
+        <v>111.0026885100519</v>
       </c>
       <c r="L6" t="n">
-        <v>196.0472588956245</v>
+        <v>196.0472588956225</v>
       </c>
       <c r="M6" t="n">
-        <v>248.3302962725792</v>
+        <v>365.6323296314083</v>
       </c>
       <c r="N6" t="n">
-        <v>269.4570470686391</v>
+        <v>382.6612299361379</v>
       </c>
       <c r="O6" t="n">
-        <v>224.0563177862347</v>
+        <v>224.0563177862326</v>
       </c>
       <c r="P6" t="n">
-        <v>160.2965984366719</v>
+        <v>160.2965984366701</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.73060026024075</v>
+        <v>56.73060026023956</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>127.8323021246948</v>
+        <v>127.8323021246939</v>
       </c>
       <c r="L7" t="n">
-        <v>219.6686432781369</v>
+        <v>219.6686432781357</v>
       </c>
       <c r="M7" t="n">
-        <v>242.1038482521232</v>
+        <v>242.103848252122</v>
       </c>
       <c r="N7" t="n">
-        <v>241.8366714066212</v>
+        <v>241.83667140662</v>
       </c>
       <c r="O7" t="n">
-        <v>207.1972321662763</v>
+        <v>207.1972321662752</v>
       </c>
       <c r="P7" t="n">
-        <v>153.5347616685308</v>
+        <v>153.5347616685299</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.02165190313909</v>
+        <v>22.02165190313843</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.473758780891</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.829346614056</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.2834058662058</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873105</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.65087734093967</v>
       </c>
       <c r="K9" t="n">
-        <v>423.1432842295773</v>
+        <v>423.1432842295777</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.152662181806</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.1382782510199</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440065</v>
       </c>
       <c r="P9" t="n">
-        <v>358.5056671612264</v>
+        <v>216.6751672332333</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>236.2486803769245</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348409</v>
+        <v>15.48193198348422</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231598</v>
+        <v>156.58989002316</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971897</v>
+        <v>256.46845489719</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900911</v>
+        <v>280.9040898900914</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212425</v>
+        <v>279.7143300212427</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735793</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748827</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349593</v>
+        <v>42.74826709349604</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>379.5262112417394</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>188.9220579561613</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295251</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402486</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998967</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,13 +36431,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36668,22 +36668,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,16 +37379,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
